--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>RI</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>ITT01</t>
+  </si>
+  <si>
+    <t>11 Nov 2019</t>
+  </si>
+  <si>
+    <t>DT07</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -466,6 +472,17 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>2870.77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>RI</t>
   </si>
@@ -102,16 +102,7 @@
     <t>08 Nov 2019</t>
   </si>
   <si>
-    <t>ADANI54145</t>
-  </si>
-  <si>
     <t>ITT01</t>
-  </si>
-  <si>
-    <t>11 Nov 2019</t>
-  </si>
-  <si>
-    <t>DT07</t>
   </si>
 </sst>
 </file>
@@ -429,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -454,35 +445,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>72.05</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>87.9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>2870.77</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>RI</t>
   </si>
@@ -103,6 +103,66 @@
   </si>
   <si>
     <t>ITT01</t>
+  </si>
+  <si>
+    <t>01 Jan 2008</t>
+  </si>
+  <si>
+    <t>10 Jan 2008</t>
+  </si>
+  <si>
+    <t>11 Jan 2008</t>
+  </si>
+  <si>
+    <t>12 Jan 2008</t>
+  </si>
+  <si>
+    <t>13 Jan 2008</t>
+  </si>
+  <si>
+    <t>14 Jan 2008</t>
+  </si>
+  <si>
+    <t>15 Jan 2008</t>
+  </si>
+  <si>
+    <t>16 Jan 2008</t>
+  </si>
+  <si>
+    <t>17 Jan 2008</t>
+  </si>
+  <si>
+    <t>18 Jan 2008</t>
+  </si>
+  <si>
+    <t>19 Jan 2008</t>
+  </si>
+  <si>
+    <t>20 Jan 2008</t>
+  </si>
+  <si>
+    <t>02 Jan 2008</t>
+  </si>
+  <si>
+    <t>03 Jan 2008</t>
+  </si>
+  <si>
+    <t>04 Jan 2008</t>
+  </si>
+  <si>
+    <t>05 Jan 2008</t>
+  </si>
+  <si>
+    <t>06 Jan 2008</t>
+  </si>
+  <si>
+    <t>07 Jan 2008</t>
+  </si>
+  <si>
+    <t>08 Jan 2008</t>
+  </si>
+  <si>
+    <t>09 Jan 2008</t>
   </si>
 </sst>
 </file>
@@ -420,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -452,6 +512,226 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>277.64999999999998</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>52.19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>436</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>85.85</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>159.15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>33.6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>98</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>122.08</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>46.75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>8.49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>147.13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>169.49600000000001</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>277.76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>119.8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>19.45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>46.5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>60.35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>49.9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>85.9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>RI</t>
   </si>
@@ -99,19 +99,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>08 Nov 2019</t>
-  </si>
-  <si>
-    <t>ITT01</t>
-  </si>
-  <si>
     <t>01 Jan 2008</t>
   </si>
   <si>
     <t>10 Jan 2008</t>
-  </si>
-  <si>
-    <t>11 Jan 2008</t>
   </si>
   <si>
     <t>12 Jan 2008</t>
@@ -480,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -505,10 +496,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>72.05</v>
+        <v>277.64999999999998</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
@@ -516,222 +507,200 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>277.64999999999998</v>
+        <v>52.19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>52.19</v>
+        <v>436</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>436</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>85.85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>85.85</v>
+        <v>159.15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>159.15</v>
+        <v>33.6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>33.6</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>122.08</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>122.08</v>
+        <v>46.75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>46.75</v>
+        <v>147.13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>8.49</v>
+        <v>169.49600000000001</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>147.13</v>
+        <v>277.76</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>169.49600000000001</v>
+        <v>119.8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>277.76</v>
+        <v>19.45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>119.8</v>
+        <v>46.5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>19.45</v>
+        <v>60.35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>46.5</v>
+        <v>49.9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>60.35</v>
+        <v>85.9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>49.9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>85.9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>RI</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>09 Jan 2008</t>
+  </si>
+  <si>
+    <t>ADANI54145</t>
+  </si>
+  <si>
+    <t>26 Nov 2019</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -686,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>49.9</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>
@@ -701,6 +707,17 @@
       </c>
       <c r="C20" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>116</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>RI</t>
   </si>
@@ -156,10 +156,19 @@
     <t>09 Jan 2008</t>
   </si>
   <si>
-    <t>ADANI54145</t>
-  </si>
-  <si>
-    <t>26 Nov 2019</t>
+    <t>AE01</t>
+  </si>
+  <si>
+    <t>02 Dec 2019</t>
+  </si>
+  <si>
+    <t>BFU</t>
+  </si>
+  <si>
+    <t>04 Dec 2019</t>
+  </si>
+  <si>
+    <t>ITD02</t>
   </si>
 </sst>
 </file>
@@ -477,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -714,10 +723,32 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>266.20999999999998</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>339.3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>RI</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>ITD02</t>
+  </si>
+  <si>
+    <t>ICI02</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -525,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52.19</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
@@ -723,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>210</v>
+        <v>210.2</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>44</v>
@@ -748,6 +751,17 @@
         <v>339.3</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>522.79999999999995</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
     </row>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>RI</t>
   </si>
@@ -162,9 +162,6 @@
     <t>02 Dec 2019</t>
   </si>
   <si>
-    <t>BFU</t>
-  </si>
-  <si>
     <t>04 Dec 2019</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>ICI02</t>
+  </si>
+  <si>
+    <t>Qty</t>
   </si>
 </sst>
 </file>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -501,7 +501,7 @@
     <col min="3" max="3" width="10.734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -511,8 +511,11 @@
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -522,8 +525,11 @@
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -533,8 +539,11 @@
       <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -544,8 +553,11 @@
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -555,8 +567,11 @@
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -566,8 +581,11 @@
       <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -577,8 +595,11 @@
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -588,8 +609,11 @@
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -599,8 +623,11 @@
       <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -610,8 +637,11 @@
       <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -621,8 +651,11 @@
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -632,8 +665,11 @@
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -643,8 +679,11 @@
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -654,8 +693,11 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -665,8 +707,11 @@
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -676,8 +721,11 @@
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -687,8 +735,11 @@
       <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -698,8 +749,11 @@
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -709,8 +763,11 @@
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -720,8 +777,11 @@
       <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -731,38 +791,36 @@
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>339.3</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B22">
-        <v>266.20999999999998</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>47</v>
       </c>
       <c r="B23">
-        <v>339.3</v>
+        <v>522.79999999999995</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24">
-        <v>522.79999999999995</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>RI</t>
   </si>
@@ -138,9 +138,6 @@
     <t>03 Jan 2008</t>
   </si>
   <si>
-    <t>04 Jan 2008</t>
-  </si>
-  <si>
     <t>05 Jan 2008</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
   </si>
   <si>
     <t>04 Dec 2019</t>
-  </si>
-  <si>
-    <t>ITD02</t>
   </si>
   <si>
     <t>ICI02</t>
@@ -489,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -512,7 +506,7 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -559,66 +553,66 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>85.85</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>85.85</v>
+        <v>159.15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>159.15</v>
+        <v>33.6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>33.6</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>122.08</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
@@ -629,27 +623,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>122.08</v>
+        <v>46.75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>46.75</v>
+        <v>147.13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -657,69 +651,69 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>147.13</v>
+        <v>169.49600000000001</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>169.49600000000001</v>
+        <v>277.76</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>277.76</v>
+        <v>119.8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>119.8</v>
+        <v>19.45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>19.45</v>
+        <v>46.5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>100</v>
@@ -727,99 +721,71 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>46.5</v>
+        <v>60.35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>60.35</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>160</v>
+        <v>85.9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B20">
-        <v>85.9</v>
+        <v>210.2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>210.2</v>
+        <v>522.79999999999995</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22">
-        <v>339.3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23">
-        <v>522.79999999999995</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23">
         <v>20</v>
       </c>
     </row>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>RI</t>
   </si>
@@ -153,12 +153,6 @@
     <t>09 Jan 2008</t>
   </si>
   <si>
-    <t>AE01</t>
-  </si>
-  <si>
-    <t>02 Dec 2019</t>
-  </si>
-  <si>
     <t>04 Dec 2019</t>
   </si>
   <si>
@@ -166,6 +160,15 @@
   </si>
   <si>
     <t>Qty</t>
+  </si>
+  <si>
+    <t>BFU</t>
+  </si>
+  <si>
+    <t>09 Dec 2019</t>
+  </si>
+  <si>
+    <t>RF07</t>
   </si>
 </sst>
 </file>
@@ -483,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -506,7 +509,7 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -763,16 +766,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>522.79999999999995</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
-        <v>210.2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D20">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -780,12 +783,26 @@
         <v>45</v>
       </c>
       <c r="B21">
-        <v>522.79999999999995</v>
+        <v>310.2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>605.55999999999995</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22">
         <v>20</v>
       </c>
     </row>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>RI</t>
   </si>
@@ -162,13 +163,16 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>BFU</t>
-  </si>
-  <si>
     <t>09 Dec 2019</t>
   </si>
   <si>
     <t>RF07</t>
+  </si>
+  <si>
+    <t>11 Dec 2019</t>
+  </si>
+  <si>
+    <t>CF06</t>
   </si>
 </sst>
 </file>
@@ -486,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -514,295 +518,43 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>277.64999999999998</v>
+        <v>522.79999999999995</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>140</v>
+        <v>605.55999999999995</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>436</v>
+        <v>509.6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>85.85</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>159.15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>33.6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>98</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>122.08</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>46.75</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>147.13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>169.49600000000001</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>277.76</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>119.8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>19.45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>46.5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>60.35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>160</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>85.9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20">
-        <v>522.79999999999995</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>310.2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22">
-        <v>605.55999999999995</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22">
         <v>20</v>
       </c>
     </row>
@@ -812,6 +564,273 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>277.64999999999998</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>140</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>436</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>85.85</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>159.15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>33.6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>122.08</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>46.75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>147.13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>169.49600000000001</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>277.76</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>119.8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>19.45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>46.5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>60.35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>160</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>85.9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>RI</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>CF06</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>12 Dec 2019</t>
   </si>
 </sst>
 </file>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -556,6 +562,20 @@
       </c>
       <c r="D4">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>3408.8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>RI</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>12 Dec 2019</t>
+  </si>
+  <si>
+    <t>BFU</t>
+  </si>
+  <si>
+    <t>17 Dec 2019</t>
   </si>
 </sst>
 </file>
@@ -496,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -576,6 +582,20 @@
       </c>
       <c r="D5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>320.88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>RI</t>
   </si>
@@ -169,22 +169,10 @@
     <t>RF07</t>
   </si>
   <si>
-    <t>11 Dec 2019</t>
-  </si>
-  <si>
-    <t>CF06</t>
-  </si>
-  <si>
     <t>BA</t>
   </si>
   <si>
     <t>12 Dec 2019</t>
-  </si>
-  <si>
-    <t>BFU</t>
-  </si>
-  <si>
-    <t>17 Dec 2019</t>
   </si>
 </sst>
 </file>
@@ -502,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -558,44 +546,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>3408.8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B4">
-        <v>509.6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <v>3408.8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>320.88</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -163,16 +163,16 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>09 Dec 2019</t>
-  </si>
-  <si>
-    <t>RF07</t>
-  </si>
-  <si>
     <t>BA</t>
   </si>
   <si>
     <t>12 Dec 2019</t>
+  </si>
+  <si>
+    <t>ADANI54145</t>
+  </si>
+  <si>
+    <t>17 Jan 2019</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -532,27 +532,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>605.55999999999995</v>
+        <v>188.65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>3408.8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>3</v>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>RI</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>17 Jan 2019</t>
+  </si>
+  <si>
+    <t>AVT</t>
+  </si>
+  <si>
+    <t>GAE</t>
+  </si>
+  <si>
+    <t>29 Jan 2020</t>
+  </si>
+  <si>
+    <t>USF</t>
   </si>
 </sst>
 </file>
@@ -490,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -556,6 +568,48 @@
       </c>
       <c r="D4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>37.93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>158.1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>55.25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>RI</t>
   </si>
@@ -161,12 +161,6 @@
   </si>
   <si>
     <t>Qty</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>12 Dec 2019</t>
   </si>
   <si>
     <t>ADANI54145</t>
@@ -502,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -544,13 +538,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>188.65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -558,30 +552,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>3408.8</v>
+        <v>37.93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>158.1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5">
-        <v>37.93</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D5">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -589,26 +583,12 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>158.1</v>
+        <v>55.25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7">
-        <v>55.25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
         <v>100</v>
       </c>
     </row>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>RI</t>
   </si>
@@ -157,21 +157,9 @@
     <t>04 Dec 2019</t>
   </si>
   <si>
-    <t>ICI02</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
-    <t>ADANI54145</t>
-  </si>
-  <si>
-    <t>17 Jan 2019</t>
-  </si>
-  <si>
-    <t>AVT</t>
-  </si>
-  <si>
     <t>GAE</t>
   </si>
   <si>
@@ -179,6 +167,21 @@
   </si>
   <si>
     <t>USF</t>
+  </si>
+  <si>
+    <t>BFU</t>
+  </si>
+  <si>
+    <t>13 Feb 2020</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>20 Feb 2020</t>
+  </si>
+  <si>
+    <t>CAR</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -519,18 +522,18 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B2">
-        <v>522.79999999999995</v>
+        <v>490.95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -538,58 +541,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>188.65</v>
+        <v>320.88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4">
-        <v>37.93</v>
+        <v>158.1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>158.1</v>
+        <v>55.25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
-        <v>55.25</v>
+        <v>3795</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/boughtList.xlsx
+++ b/boughtList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>RI</t>
   </si>
@@ -160,12 +160,6 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>GAE</t>
-  </si>
-  <si>
-    <t>29 Jan 2020</t>
-  </si>
-  <si>
     <t>USF</t>
   </si>
   <si>
@@ -176,12 +170,6 @@
   </si>
   <si>
     <t>BA</t>
-  </si>
-  <si>
-    <t>20 Feb 2020</t>
-  </si>
-  <si>
-    <t>CAR</t>
   </si>
 </sst>
 </file>
@@ -499,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -527,71 +515,43 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2">
-        <v>490.95</v>
+        <v>320.88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>320.88</v>
+        <v>55.25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>158.1</v>
+        <v>3795</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
-        <v>55.25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>3795</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6">
         <v>5</v>
       </c>
     </row>
